--- a/FixedWingDoublet/DataFolder/CaseNumbers.xlsx
+++ b/FixedWingDoublet/DataFolder/CaseNumbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginiatech-my.sharepoint.com/personal/nxs0376_vt_edu/Documents/Research/Codes/Different Predictors Simulation/FixedWingDoublet/DataFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{9FA22D15-1E21-4644-B4B1-FF71B404FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95BB67F0-1E64-4616-8237-2E6A25C58C77}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{9FA22D15-1E21-4644-B4B1-FF71B404FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69C9174-0BF1-42C7-9939-1C006BC2914B}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5475" windowWidth="29040" windowHeight="15840" xr2:uid="{4E41587A-0978-43C0-AEC0-D975799917BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Ts</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013B8DD5-4A4D-4296-92EE-4F1E43D861F0}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +562,7 @@
     <col min="5" max="5" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.1</v>
       </c>
@@ -596,7 +599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -610,7 +613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -624,11 +627,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -639,8 +642,11 @@
       <c r="F5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -653,8 +659,11 @@
       <c r="F6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -667,8 +676,11 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -686,7 +698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -700,7 +712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -714,11 +726,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -729,8 +741,11 @@
       <c r="F11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -743,8 +758,11 @@
       <c r="F12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -757,8 +775,11 @@
       <c r="F13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.05</v>
       </c>
@@ -778,7 +799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -792,7 +813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -806,11 +827,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -822,7 +843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -836,7 +857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -850,7 +871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
@@ -868,7 +889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -882,7 +903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -896,11 +917,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -911,8 +932,11 @@
       <c r="F23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -925,8 +949,11 @@
       <c r="F24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -939,8 +966,11 @@
       <c r="F25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.01</v>
       </c>
@@ -960,7 +990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -974,7 +1004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -988,11 +1018,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -1004,7 +1034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1018,7 +1048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1032,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>3</v>
@@ -1082,7 +1112,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -1124,13 +1154,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="B14:B19"/>
@@ -1145,6 +1168,13 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FixedWingDoublet/DataFolder/CaseNumbers.xlsx
+++ b/FixedWingDoublet/DataFolder/CaseNumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginiatech-my.sharepoint.com/personal/nxs0376_vt_edu/Documents/Research/Codes/Different Predictors Simulation/FixedWingDoublet/DataFolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Virginia Tech\Research\Codes\Different Predictors Simulation\FixedWingDoublet\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{9FA22D15-1E21-4644-B4B1-FF71B404FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69C9174-0BF1-42C7-9939-1C006BC2914B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17DE9B-D164-452D-8360-FCA53C424710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5475" windowWidth="29040" windowHeight="15840" xr2:uid="{4E41587A-0978-43C0-AEC0-D975799917BF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4E41587A-0978-43C0-AEC0-D975799917BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Ts</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -246,10 +243,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013B8DD5-4A4D-4296-92EE-4F1E43D861F0}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +555,7 @@
     <col min="5" max="5" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.1</v>
       </c>
@@ -599,7 +592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -613,7 +606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -627,11 +620,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -642,11 +635,8 @@
       <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -659,11 +649,8 @@
       <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -676,11 +663,8 @@
       <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -698,7 +682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -712,7 +696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -726,11 +710,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -741,11 +725,8 @@
       <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -758,11 +739,8 @@
       <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -775,11 +753,8 @@
       <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.05</v>
       </c>
@@ -799,7 +774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -813,7 +788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -827,11 +802,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -843,7 +818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -857,7 +832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -871,7 +846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
@@ -889,7 +864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -903,7 +878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -917,11 +892,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -932,11 +907,8 @@
       <c r="F23" t="s">
         <v>43</v>
       </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -949,11 +921,8 @@
       <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -966,11 +935,8 @@
       <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.01</v>
       </c>
@@ -990,7 +956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1004,7 +970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1018,11 +984,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -1034,7 +1000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1048,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1062,7 +1028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>3</v>
@@ -1112,7 +1078,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -1154,6 +1120,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="B14:B19"/>
@@ -1168,13 +1141,6 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FixedWingDoublet/DataFolder/CaseNumbers.xlsx
+++ b/FixedWingDoublet/DataFolder/CaseNumbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Virginia Tech\Research\Codes\Different Predictors Simulation\FixedWingDoublet\DataFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginiatech-my.sharepoint.com/personal/nxs0376_vt_edu/Documents/Research/Codes/Different Predictors Simulation/FixedWingDoublet/DataFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B17DE9B-D164-452D-8360-FCA53C424710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{9FA22D15-1E21-4644-B4B1-FF71B404FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13A1B93-28DA-4F4A-A6E2-6590274E441D}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4E41587A-0978-43C0-AEC0-D975799917BF}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
